--- a/Core Lasso Data/interpretation.xlsx
+++ b/Core Lasso Data/interpretation.xlsx
@@ -13,16 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="PAHO Cases Lagged 1 Week" sheetId="6" r:id="rId1"/>
-    <sheet name="All Dynamic" sheetId="1" r:id="rId2"/>
-    <sheet name="3 Week Moving" sheetId="3" r:id="rId3"/>
-    <sheet name="8 Week Moving" sheetId="5" r:id="rId4"/>
+    <sheet name="Static by Peak" sheetId="7" r:id="rId2"/>
+    <sheet name="Static by Time" sheetId="8" r:id="rId3"/>
+    <sheet name="All Dynamic" sheetId="1" r:id="rId4"/>
+    <sheet name="3 Week Moving" sheetId="3" r:id="rId5"/>
+    <sheet name="8 Week Moving" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="28">
   <si>
     <t>Predicted</t>
   </si>
@@ -55,6 +57,57 @@
   </si>
   <si>
     <t>New Suspected Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educational </t>
+  </si>
+  <si>
+    <t>Not clear why tweet was selected</t>
+  </si>
+  <si>
+    <t>Chikungunya Braclet</t>
+  </si>
+  <si>
+    <t>Debate over Spelling/ Comments on Pronunciation</t>
+  </si>
+  <si>
+    <t>People Who Don't have Chikungunya</t>
+  </si>
+  <si>
+    <t>People Who Don’t Have Chikungunya but are afraid of getting it</t>
+  </si>
+  <si>
+    <t>Song Related</t>
+  </si>
+  <si>
+    <t>Chikungunya mentioned but unclear whether the person has Chikungunya</t>
+  </si>
+  <si>
+    <t>Chikungunya mentioned but in no particular context</t>
+  </si>
+  <si>
+    <t>People who say they want Chikungunya/or wish it on others</t>
+  </si>
+  <si>
+    <t>Joke or Irrelevant tweet</t>
+  </si>
+  <si>
+    <t>People reporting mosquito bites (no symptoms yet)</t>
+  </si>
+  <si>
+    <t>CDC or government agency awareness</t>
+  </si>
+  <si>
+    <t>Country/City/State Case Counts</t>
+  </si>
+  <si>
+    <t>Someone (including self) is showing symptoms. Maybe Chikungunya?</t>
+  </si>
+  <si>
+    <t>Reporting others are sick with Chikungunya virus</t>
+  </si>
+  <si>
+    <t>Self reporting sick with Chikungunya virus</t>
   </si>
 </sst>
 </file>
@@ -378,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -493,6 +546,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -538,10 +600,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -891,11 +957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="389514808"/>
-        <c:axId val="389516376"/>
+        <c:axId val="660458312"/>
+        <c:axId val="660460272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="389514808"/>
+        <c:axId val="660458312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,12 +1018,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389516376"/>
+        <c:crossAx val="660460272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="389516376"/>
+        <c:axId val="660460272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389514808"/>
+        <c:crossAx val="660458312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1064,6 +1130,1389 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>6/15,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 8/24, 10/19</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static by Peak'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static by Peak'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41840</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41854</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41889</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41924</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41938</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static by Peak'!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>83.502884941299996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.759671535999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179.798294277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.492791224899999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310.57848658099999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512.125406118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>507.42377098399999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>841.39083970499996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1025.8587483399999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>522.06910628900005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>568.81146385600005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>888.47268684100004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>978.71473895700001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1069.1535044699999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1019.47138481</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2141.6783506000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1374.8283484000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1103.86952206</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1668.89685874</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1529.5773559500001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1250.93835036</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3340.7308922399998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>832.97984198699999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1111.6188475700001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1390.2578531500001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static by Peak'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static by Peak'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41840</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41854</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41889</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41924</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41938</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static by Peak'!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2437</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3984</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1661</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="417571976"/>
+        <c:axId val="417571192"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="417571976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417571192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="417571192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417571976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>6/15, 8/3, 10/12</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static by Time'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static by Time'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41840</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41854</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41889</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41924</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41938</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static by Time'!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>110.17860654099999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.303205268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110.17860654099999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168.55917597499999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152.12934962700001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>394.90416437800002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>556.74689166999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>858.49172837699996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1168.58529522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>475.563575856</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>646.43580200700001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>627.973150046</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>837.75522074499997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1078.6315618900001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>751.22682778800004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2416.08070787</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1396.2561301999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1595.3868677999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1519.20552935</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1493.8117498700001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1443.0241908999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1823.9308831400001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1366.8428524599999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1417.63041142</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1468.41797038</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Static by Time'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Static by Time'!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41840</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41854</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41889</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41924</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41938</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Static by Time'!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2437</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3984</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1679</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1661</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="513954488"/>
+        <c:axId val="513951744"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="513954488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513951744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="513951744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513954488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1529,11 +2978,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553903872"/>
-        <c:axId val="553904264"/>
+        <c:axId val="660463016"/>
+        <c:axId val="660459488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="553903872"/>
+        <c:axId val="660463016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,14 +3025,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553904264"/>
+        <c:crossAx val="660459488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="553904264"/>
+        <c:axId val="660459488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,7 +3083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553903872"/>
+        <c:crossAx val="660463016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1715,7 +3164,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1755,7 +3204,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2181,11 +3629,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="918507152"/>
-        <c:axId val="918510680"/>
+        <c:axId val="660463408"/>
+        <c:axId val="660469288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="918507152"/>
+        <c:axId val="660463408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,14 +3676,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="918510680"/>
+        <c:crossAx val="660469288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="918510680"/>
+        <c:axId val="660469288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2286,7 +3734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="918507152"/>
+        <c:crossAx val="660463408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2300,7 +3748,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2367,7 +3814,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2412,7 +3859,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2778,11 +4224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="928367856"/>
-        <c:axId val="928366288"/>
+        <c:axId val="660466152"/>
+        <c:axId val="660465760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="928367856"/>
+        <c:axId val="660466152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2825,14 +4271,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="928366288"/>
+        <c:crossAx val="660465760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="928366288"/>
+        <c:axId val="660465760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,7 +4329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="928367856"/>
+        <c:crossAx val="660466152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2897,7 +4343,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3124,6 +4569,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4647,6 +6172,1012 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5188,6 +7719,325 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88104</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8172450" y="633413"/>
+          <a:ext cx="9525" cy="3176587"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37712</cdr:x>
+      <cdr:y>0.01042</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.37981</cdr:x>
+      <cdr:y>0.77083</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="3336133" y="42864"/>
+          <a:ext cx="23813" cy="3128962"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00574</cdr:x>
+      <cdr:y>0.01235</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.00843</cdr:x>
+      <cdr:y>0.77276</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Straight Connector 3"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="23813" cy="3128962"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00574</cdr:x>
+      <cdr:y>0.01235</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.00843</cdr:x>
+      <cdr:y>0.77276</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Straight Connector 4"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="23813" cy="3128962"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>569118</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.27685</cdr:x>
+      <cdr:y>0.00334</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.27742</cdr:x>
+      <cdr:y>0.78261</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="2326482" y="14287"/>
+          <a:ext cx="4762" cy="3328988"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.61519</cdr:x>
+      <cdr:y>0.0078</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61519</cdr:x>
+      <cdr:y>0.78038</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Straight Connector 4"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="5169694" y="33337"/>
+          <a:ext cx="0" cy="3300413"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -5219,7 +8069,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5254,7 +8104,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5555,7 +8405,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5779,10 +8629,1287 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>41805</v>
+      </c>
+      <c r="B2">
+        <v>83.502884941299996</v>
+      </c>
+      <c r="C2">
+        <v>119</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>96.295409336099993</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>43.107979453699997</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>46.851192859100003</v>
+      </c>
+      <c r="P2">
+        <v>58.386897230099997</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>9.1848868038999996</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>41812</v>
+      </c>
+      <c r="B3">
+        <v>79.759671535999999</v>
+      </c>
+      <c r="C3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>41819</v>
+      </c>
+      <c r="B4">
+        <v>179.798294277</v>
+      </c>
+      <c r="C4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>41826</v>
+      </c>
+      <c r="B5">
+        <v>16.492791224899999</v>
+      </c>
+      <c r="C5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>41833</v>
+      </c>
+      <c r="B6">
+        <v>310.57848658099999</v>
+      </c>
+      <c r="C6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>41840</v>
+      </c>
+      <c r="B7">
+        <v>512.125406118</v>
+      </c>
+      <c r="C7">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>41847</v>
+      </c>
+      <c r="B8">
+        <v>507.42377098399999</v>
+      </c>
+      <c r="C8">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>41854</v>
+      </c>
+      <c r="B9">
+        <v>841.39083970499996</v>
+      </c>
+      <c r="C9">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>41861</v>
+      </c>
+      <c r="B10">
+        <v>1025.8587483399999</v>
+      </c>
+      <c r="C10">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="1">
+        <v>41868</v>
+      </c>
+      <c r="B11" s="3">
+        <v>522.06910628900005</v>
+      </c>
+      <c r="C11" s="3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>41875</v>
+      </c>
+      <c r="B12">
+        <v>568.81146385600005</v>
+      </c>
+      <c r="C12">
+        <v>762</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B13">
+        <v>888.47268684100004</v>
+      </c>
+      <c r="C13">
+        <v>530</v>
+      </c>
+      <c r="E13">
+        <v>21.751472744499999</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>21.0648978364</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>34.029442681200003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>41889</v>
+      </c>
+      <c r="B14">
+        <v>978.71473895700001</v>
+      </c>
+      <c r="C14">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>41896</v>
+      </c>
+      <c r="B15">
+        <v>1069.1535044699999</v>
+      </c>
+      <c r="C15">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>41903</v>
+      </c>
+      <c r="B16">
+        <v>1019.47138481</v>
+      </c>
+      <c r="C16">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B17">
+        <v>2141.6783506000002</v>
+      </c>
+      <c r="C17">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>41917</v>
+      </c>
+      <c r="B18">
+        <v>1374.8283484000001</v>
+      </c>
+      <c r="C18">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="1">
+        <v>41924</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1103.86952206</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>41931</v>
+      </c>
+      <c r="B20">
+        <v>1668.89685874</v>
+      </c>
+      <c r="C20">
+        <v>1363</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" t="s">
+        <v>15</v>
+      </c>
+      <c r="S20" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" t="s">
+        <v>13</v>
+      </c>
+      <c r="U20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>41938</v>
+      </c>
+      <c r="B21">
+        <v>1529.5773559500001</v>
+      </c>
+      <c r="C21">
+        <v>1163</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>139.31950279200001</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>41945</v>
+      </c>
+      <c r="B22">
+        <v>1250.93835036</v>
+      </c>
+      <c r="C22">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>41952</v>
+      </c>
+      <c r="B23">
+        <v>3340.7308922399998</v>
+      </c>
+      <c r="C23">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B24">
+        <v>832.97984198699999</v>
+      </c>
+      <c r="C24">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>41980</v>
+      </c>
+      <c r="B25">
+        <v>1111.6188475700001</v>
+      </c>
+      <c r="C25">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>41994</v>
+      </c>
+      <c r="B26">
+        <v>1390.2578531500001</v>
+      </c>
+      <c r="C26">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>41805</v>
+      </c>
+      <c r="B2">
+        <v>110.17860654099999</v>
+      </c>
+      <c r="C2">
+        <v>119</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>20.613142094299999</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>12.2065360897</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>28.636362437799999</v>
+      </c>
+      <c r="O2">
+        <v>19.0819373633</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>41812</v>
+      </c>
+      <c r="B3">
+        <v>103.303205268</v>
+      </c>
+      <c r="C3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>41819</v>
+      </c>
+      <c r="B4">
+        <v>110.17860654099999</v>
+      </c>
+      <c r="C4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>41826</v>
+      </c>
+      <c r="B5">
+        <v>168.55917597499999</v>
+      </c>
+      <c r="C5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>41833</v>
+      </c>
+      <c r="B6">
+        <v>152.12934962700001</v>
+      </c>
+      <c r="C6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>41840</v>
+      </c>
+      <c r="B7">
+        <v>394.90416437800002</v>
+      </c>
+      <c r="C7">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="4">
+        <v>41847</v>
+      </c>
+      <c r="B8" s="3">
+        <v>556.74689166999997</v>
+      </c>
+      <c r="C8" s="3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>41854</v>
+      </c>
+      <c r="B9">
+        <v>858.49172837699996</v>
+      </c>
+      <c r="C9">
+        <v>953</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>41861</v>
+      </c>
+      <c r="B10">
+        <v>1168.58529522</v>
+      </c>
+      <c r="C10">
+        <v>1174</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>55.140689104400003</v>
+      </c>
+      <c r="I10">
+        <v>65.557492683199996</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>101.118698787</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>22.006158116200002</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>181.28902972899999</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>41868</v>
+      </c>
+      <c r="B11">
+        <v>475.563575856</v>
+      </c>
+      <c r="C11">
+        <v>356</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>41875</v>
+      </c>
+      <c r="B12">
+        <v>646.43580200700001</v>
+      </c>
+      <c r="C12">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B13">
+        <v>627.973150046</v>
+      </c>
+      <c r="C13">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>41889</v>
+      </c>
+      <c r="B14">
+        <v>837.75522074499997</v>
+      </c>
+      <c r="C14">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>41896</v>
+      </c>
+      <c r="B15">
+        <v>1078.6315618900001</v>
+      </c>
+      <c r="C15">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>41903</v>
+      </c>
+      <c r="B16">
+        <v>751.22682778800004</v>
+      </c>
+      <c r="C16">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <v>41910</v>
+      </c>
+      <c r="B17">
+        <v>2416.08070787</v>
+      </c>
+      <c r="C17">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="4">
+        <v>41917</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1396.2561301999999</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="6" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <v>41924</v>
+      </c>
+      <c r="B19">
+        <v>1595.3868677999999</v>
+      </c>
+      <c r="C19">
+        <v>1371</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" t="s">
+        <v>13</v>
+      </c>
+      <c r="U19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>41931</v>
+      </c>
+      <c r="B20">
+        <v>1519.20552935</v>
+      </c>
+      <c r="C20">
+        <v>1363</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>25.393779482199999</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>41938</v>
+      </c>
+      <c r="B21">
+        <v>1493.8117498700001</v>
+      </c>
+      <c r="C21">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>41945</v>
+      </c>
+      <c r="B22">
+        <v>1443.0241908999999</v>
+      </c>
+      <c r="C22">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>41952</v>
+      </c>
+      <c r="B23">
+        <v>1823.9308831400001</v>
+      </c>
+      <c r="C23">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B24">
+        <v>1366.8428524599999</v>
+      </c>
+      <c r="C24">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>41980</v>
+      </c>
+      <c r="B25">
+        <v>1417.63041142</v>
+      </c>
+      <c r="C25">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>41994</v>
+      </c>
+      <c r="B26">
+        <v>1468.41797038</v>
+      </c>
+      <c r="C26">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6545,7 +10672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -7300,7 +11427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
